--- a/Labs/Lab5/small_data.xlsx
+++ b/Labs/Lab5/small_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pengshi\Dropbox\Teaching\DSO570\Course Material\Labs\Lab5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pengshi\Dropbox\Teaching\DSO570\Course Material\Labs\Lab5\blackboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Fulfilment Centers" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>FC_name</t>
   </si>
   <si>
     <t>city</t>
-  </si>
-  <si>
-    <t>zip</t>
   </si>
   <si>
     <t>capacity</t>
@@ -447,15 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,47 +468,38 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>29.547067999999999</v>
+      </c>
+      <c r="E2">
+        <v>-98.262642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>78154</v>
-      </c>
-      <c r="D2">
+      <c r="C3">
         <v>1000</v>
       </c>
-      <c r="E2">
-        <v>29.547067999999999</v>
-      </c>
-      <c r="F2">
-        <v>-98.262642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>29172</v>
-      </c>
       <c r="D3">
-        <v>1000</v>
+        <v>33.912416999999998</v>
       </c>
       <c r="E3">
-        <v>33.912416999999998</v>
-      </c>
-      <c r="F3">
         <v>-81.076977999999997</v>
       </c>
     </row>
@@ -532,19 +520,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -552,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>16.133721999999999</v>
@@ -569,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>15.146029</v>
@@ -586,7 +574,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>14.543862000000001</v>
@@ -615,13 +603,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -678,13 +666,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
